--- a/es6-spec-changelog.xlsx
+++ b/es6-spec-changelog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -97,10 +97,6 @@
     Made sure exceptions during processing of default parameter initializes are handled
     Major record for semantics of function declaration in section 13
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> November 7, 2011</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -971,7 +967,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1043,8 +1039,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1379,12 +1375,12 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="3" max="3" width="140.83203125" customWidth="1"/>
     <col min="4" max="4" width="143.33203125" customWidth="1"/>
@@ -1398,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213">
@@ -1447,14 +1443,14 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="304">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
+      <c r="A5" s="6">
+        <v>40854</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -1468,10 +1464,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="252">
@@ -1482,10 +1478,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="330">
@@ -1496,10 +1492,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409">
@@ -1510,10 +1506,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="187">
@@ -1524,10 +1520,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="174">
@@ -1538,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="265">
@@ -1552,10 +1548,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409">
@@ -1566,10 +1562,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="239">
@@ -1580,10 +1576,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="409">
@@ -1594,10 +1590,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="369">
@@ -1608,10 +1604,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="304">
@@ -1622,10 +1618,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="408">
@@ -1636,10 +1632,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="291">
@@ -1650,10 +1646,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="409">
@@ -1664,10 +1660,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="409">
@@ -1678,10 +1674,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="252">
@@ -1692,10 +1688,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="356">
@@ -1706,10 +1702,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="409">
@@ -1720,10 +1716,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="265">
@@ -1734,10 +1730,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="226">
@@ -1748,10 +1744,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="395">
@@ -1762,10 +1758,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="317">
@@ -1776,10 +1772,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="395">
@@ -1790,10 +1786,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="369">
@@ -1804,10 +1800,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="226">
@@ -1818,10 +1814,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="408">
@@ -1832,10 +1828,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="226">
@@ -1846,10 +1842,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="161">
@@ -1860,10 +1856,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="174">
@@ -1874,10 +1870,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="109">
@@ -1888,10 +1884,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="83">
@@ -1902,10 +1898,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="70">
@@ -1916,10 +1912,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="70">
@@ -1930,10 +1926,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/es6-spec-changelog.xlsx
+++ b/es6-spec-changelog.xlsx
@@ -55,21 +55,6 @@
   </si>
   <si>
     <t>http://wiki.ecmascript.org/lib/exe/fetch.php?id=harmony%3Aolder_es6_drafts&amp;cache=cache&amp;media=harmony:working_draft_ecma-262_edition_6_7-12-11.doc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    Resolved as fixed bugs 137, 140,167, 177, 183,184,185,186,187,188,189,190,191,193,196,196
-    Merged multiple built-in “class” branding internal properties into a single [[NativeBrand]] internal property
-    In 10.2, change environment records so that both mutable and immutable bindings may be in an initialized state and must be initialized before use via InitializeBinding
-    In 10.5 added separate algorithm for Block declaration instantiation. Block level declaration instantiations now specified. Function and global level still need to be updated to support let and const
-    Added a Declaration production to the grammar and changed StatementList to include both Statement and Declaration
-    Added let and const declarations. var declarations still hoist to function level and must not conflict with a let or const.
-    Hoisting and temporal dead zone for all block scoped declarations
-    Added semantics for destructuring binding pattern.
-    Added appropriate lexical scoping for declarations in bodies of switch and try statements. Note that for statements still need work for declarations in for head.
-    Added initializers for individual property level bindings in destructure bindings
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -961,15 +946,31 @@
     <t>Changelog</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+    Resolved as fixed bugs 137, 140,167, 177, 183,184,185,186,187,188,189,190,191,193,196,196
+    Merged multiple built-in “class” branding internal properties into a single [[NativeBrand]] internal property
+    In 10.2, change environment records so that both mutable and immutable bindings may be in an initialized state and must be initialized before use via InitializeBinding
+    In 10.5 added separate algorithm for Block declaration instantiation. Block level declaration instantiations now specified. Function and global level still need to be updated to support let and const
+    Added a Declaration production to the grammar and changed StatementList to include both Statement and Declaration
+    Added let and const declarations. var declarations still hoist to function level and must not conflict with a let or const.
+    Hoisting and temporal dead zone for all block scoped declarations
+    Added semantics for destructuring binding pattern.
+    Added appropriate lexical scoping for declarations in bodies of switch and try statements. Note that for statements still need work for declarations in for head.
+    Added initializers for individual property level bindings in destructure bindings
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -980,6 +981,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1024,10 +1043,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1041,9 +1064,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1375,7 +1403,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1394,14 +1422,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="213">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>40736</v>
       </c>
       <c r="B2">
@@ -1415,7 +1443,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>40749</v>
       </c>
       <c r="B3">
@@ -1429,512 +1457,513 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="187">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>40809</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="304">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>40854</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="161">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>40924</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="252">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>40966</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="330">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>41033</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>41075</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="187">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>41098</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:4" ht="174">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>41179</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="265">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>41208</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="409">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>41235</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="239">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>41264</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="409">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>41341</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="16" spans="1:4" ht="369">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>41408</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="17" spans="1:4" ht="304">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>41470</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="18" spans="1:4" ht="408">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>41509</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="291">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>41522</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="20" spans="1:4" ht="409">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>41544</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="21" spans="1:4" ht="409">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>41575</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="252">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>41586</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="356">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>41659</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="24" spans="1:4" ht="409">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>41734</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="25" spans="1:4" ht="265">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>41756</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="26" spans="1:4" ht="226">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>41781</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="27" spans="1:4" ht="395">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>41838</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="28" spans="1:4" ht="317">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>41875</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="29" spans="1:4" ht="395">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>41926</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="30" spans="1:4" ht="369">
-      <c r="A30" s="6">
+      <c r="A30" s="7">
         <v>41979</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="226">
-      <c r="A31" s="6">
+      <c r="A31" s="7">
         <v>41997</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="32" spans="1:4" ht="408">
-      <c r="A32" s="6">
+      <c r="A32" s="7">
         <v>42019</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="33" spans="1:4" ht="226">
-      <c r="A33" s="6">
+      <c r="A33" s="7">
         <v>42037</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="34" spans="1:4" ht="161">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>42047</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="174">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>42055</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="109">
-      <c r="A36" s="6">
+      <c r="A36" s="7">
         <v>42067</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="37" spans="1:4" ht="83">
-      <c r="A37" s="6">
+      <c r="A37" s="7">
         <v>42080</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="38" spans="1:4" ht="70">
-      <c r="A38" s="6">
+      <c r="A38" s="7">
         <v>42097</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="39" spans="1:4" ht="70">
-      <c r="A39" s="6">
+      <c r="A39" s="7">
         <v>42108</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
